--- a/testdata/TestData_AddressBook.xlsx
+++ b/testdata/TestData_AddressBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devaraj\eclipse-workspace\DollarDaysGithub\DollarDaysMadhu\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD33A6-B35B-4DF4-9B23-AECA837AFD22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23EC988-21BD-467B-844C-03BBB4E6EE57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -830,7 +830,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +839,7 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
@@ -962,7 +962,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E32"/>
+      <selection activeCell="E3" sqref="E3:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +971,7 @@
     <col min="2" max="2" width="63.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="4"/>
     <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" customWidth="1"/>
@@ -1046,7 +1046,7 @@
       <c r="D2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F2" s="6"/>
@@ -1074,7 +1074,7 @@
       <c r="D3" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -1123,7 +1123,7 @@
       <c r="D4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -1165,7 +1165,7 @@
       <c r="D5" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -1195,7 +1195,7 @@
       <c r="D6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1225,7 +1225,7 @@
       <c r="D7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F7" s="10" t="s">
@@ -1255,7 +1255,7 @@
       <c r="D8" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F8" s="8"/>
@@ -1285,7 +1285,7 @@
       <c r="D9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F9" s="8"/>
@@ -1315,7 +1315,7 @@
       <c r="D10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F10" s="8"/>
@@ -1345,7 +1345,7 @@
       <c r="D11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F11" s="8"/>
@@ -1375,7 +1375,7 @@
       <c r="D12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F12" s="8"/>
@@ -1405,7 +1405,7 @@
       <c r="D13" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F13" s="8"/>
@@ -1435,7 +1435,7 @@
       <c r="D14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F14" s="8"/>
@@ -1463,7 +1463,7 @@
       <c r="D15" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F15" s="8"/>
@@ -1493,7 +1493,7 @@
       <c r="D16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F16" s="8"/>
@@ -1523,7 +1523,7 @@
       <c r="D17" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F17" s="8"/>
@@ -1542,7 +1542,7 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
@@ -1555,7 +1555,7 @@
       <c r="D18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="8"/>
@@ -1585,7 +1585,7 @@
       <c r="D19" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F19" s="13"/>
@@ -1617,7 +1617,7 @@
       <c r="D20" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F20" s="8"/>
@@ -1647,7 +1647,7 @@
       <c r="D21" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F21" s="8"/>
@@ -1679,7 +1679,7 @@
       <c r="D22" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F22" s="8"/>
@@ -1696,7 +1696,7 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>81</v>
       </c>
@@ -1709,7 +1709,7 @@
       <c r="D23" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F23" s="8"/>
@@ -1739,7 +1739,7 @@
       <c r="D24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F24" s="8"/>
@@ -1769,7 +1769,7 @@
       <c r="D25" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F25" s="8"/>
@@ -1799,7 +1799,7 @@
       <c r="D26" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F26" s="8"/>
@@ -1829,7 +1829,7 @@
       <c r="D27" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F27" s="8"/>
@@ -1859,7 +1859,7 @@
       <c r="D28" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F28" s="8"/>
@@ -1889,7 +1889,7 @@
       <c r="D29" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F29" s="8"/>
@@ -1930,7 +1930,7 @@
       <c r="D30" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F30" s="10" t="s">
@@ -1976,7 +1976,7 @@
       <c r="D31" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F31" s="10" t="s">
@@ -2022,7 +2022,7 @@
       <c r="D32" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F32" s="10" t="s">
@@ -2059,9 +2059,10 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H11" r:id="rId1" xr:uid="{DA13C3C8-4A25-402E-8846-970D3E9F5EF0}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{64826E0F-AB38-4016-A719-ED8892CA2AD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2070,7 +2071,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="D4:E4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2078,7 +2079,7 @@
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>

--- a/testdata/TestData_AddressBook.xlsx
+++ b/testdata/TestData_AddressBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devaraj\eclipse-workspace\DollarDaysGithub\DollarDaysMadhu\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F837F4-C0C5-45EE-A24B-15AAE298F5F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120EBE26-4A41-44D0-8585-F34232590173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
   <si>
     <t>TCID</t>
   </si>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,12 +998,8 @@
       <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
         <v>27</v>
       </c>
@@ -1048,7 +1044,7 @@
         <v>34</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>35</v>
@@ -1576,7 +1572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>

--- a/testdata/TestData_AddressBook.xlsx
+++ b/testdata/TestData_AddressBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devaraj\eclipse-workspace\DollarDaysGithub\DollarDaysMadhu\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120EBE26-4A41-44D0-8585-F34232590173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8B3890-D27A-4AFE-BC0B-FBF42BE284F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -810,7 +810,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
